--- a/backend/uploads/recettes.xlsx
+++ b/backend/uploads/recettes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D89C56-61AA-459E-97C0-1A0F6FF473D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862FF6D-140D-447B-A442-AE41C5C0ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="140">
   <si>
     <t>Contract</t>
   </si>
@@ -89,16 +89,16 @@
     <t>Factuur Bez.</t>
   </si>
   <si>
-    <t>00013530</t>
-  </si>
-  <si>
-    <t>13-02-2025</t>
+    <t>00014390</t>
+  </si>
+  <si>
+    <t>01-05-2025</t>
   </si>
   <si>
     <t>SPL</t>
   </si>
   <si>
-    <t>Juf Braaksel en De Geniale Ontsnapping</t>
+    <t>Red Flags</t>
   </si>
   <si>
     <t>2D Digital</t>
@@ -116,322 +116,325 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>00014019</t>
-  </si>
-  <si>
-    <t>Woezel &amp; Pip op Avontuur in de Tovertuin</t>
-  </si>
-  <si>
-    <t>20-02-2025</t>
-  </si>
-  <si>
-    <t>27-02-2025</t>
-  </si>
-  <si>
-    <t>00014273</t>
-  </si>
-  <si>
-    <t>Love Fail Repeat</t>
-  </si>
-  <si>
-    <t>00033671</t>
-  </si>
-  <si>
-    <t>CNA</t>
-  </si>
-  <si>
-    <t>Babygirl</t>
+    <t>08-05-2025</t>
+  </si>
+  <si>
+    <t>00057578</t>
+  </si>
+  <si>
+    <t>DFW</t>
+  </si>
+  <si>
+    <t>Paddington in Peru (NL)</t>
   </si>
   <si>
     <t>2D Digital OV-NL</t>
   </si>
   <si>
-    <t>00034101</t>
-  </si>
-  <si>
-    <t>Outrun, The</t>
-  </si>
-  <si>
-    <t>00040547</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>Marked Men</t>
-  </si>
-  <si>
-    <t>00040658</t>
-  </si>
-  <si>
-    <t>Juffrouw Pots</t>
-  </si>
-  <si>
-    <t>00040803</t>
-  </si>
-  <si>
-    <t>Straatcoaches VS Aliens</t>
-  </si>
-  <si>
-    <t>00057061</t>
-  </si>
-  <si>
-    <t>DFW</t>
-  </si>
-  <si>
-    <t>We Live in Time</t>
-  </si>
-  <si>
-    <t>00057578</t>
-  </si>
-  <si>
-    <t>Paddington in Peru (NL)</t>
-  </si>
-  <si>
-    <t>00057741</t>
-  </si>
-  <si>
-    <t>Paddington in Peru (OV)</t>
-  </si>
-  <si>
-    <t>00076378</t>
+    <t>00058406</t>
+  </si>
+  <si>
+    <t>Dubbel Zes</t>
+  </si>
+  <si>
+    <t>00058756</t>
+  </si>
+  <si>
+    <t>Fien &amp; Teun gaan op schattenjacht</t>
+  </si>
+  <si>
+    <t>00059025</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>00059094</t>
+  </si>
+  <si>
+    <t>Dochters</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>00059224</t>
+  </si>
+  <si>
+    <t>Most Precious of Cargoes, The</t>
+  </si>
+  <si>
+    <t>00059253</t>
+  </si>
+  <si>
+    <t>00074962</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>Riefenstahl</t>
+  </si>
+  <si>
+    <t>00077290</t>
   </si>
   <si>
     <t>WWE</t>
   </si>
   <si>
-    <t>Loverboy: Emoties uit</t>
+    <t>Buffalo Kids</t>
+  </si>
+  <si>
+    <t>00077336</t>
+  </si>
+  <si>
+    <t>Bonhoeffer</t>
+  </si>
+  <si>
+    <t>00130462</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Working Man, A</t>
+  </si>
+  <si>
+    <t>00130761</t>
+  </si>
+  <si>
+    <t>Minecraft Movie, A (2D NL)</t>
+  </si>
+  <si>
+    <t>00130852</t>
+  </si>
+  <si>
+    <t>Minecraft Movie, A (2D OV)</t>
+  </si>
+  <si>
+    <t>00130919</t>
+  </si>
+  <si>
+    <t>Minecraft Movie, A (3D OV)</t>
+  </si>
+  <si>
+    <t>3D Digital</t>
+  </si>
+  <si>
+    <t>00131128</t>
+  </si>
+  <si>
+    <t>Sinners</t>
+  </si>
+  <si>
+    <t>00131338</t>
+  </si>
+  <si>
+    <t>Accountant 2, The</t>
+  </si>
+  <si>
+    <t>00131497</t>
+  </si>
+  <si>
+    <t>Harry Potter 1 (ov)</t>
+  </si>
+  <si>
+    <t>00131498</t>
+  </si>
+  <si>
+    <t>Harry Potter 2 (ov)</t>
+  </si>
+  <si>
+    <t>00131499</t>
+  </si>
+  <si>
+    <t>Harry Potter 3 (ov)</t>
+  </si>
+  <si>
+    <t>00131500</t>
+  </si>
+  <si>
+    <t>Harry Potter 4 (ov)</t>
+  </si>
+  <si>
+    <t>00131501</t>
+  </si>
+  <si>
+    <t>Harry Potter 5 (ov)</t>
+  </si>
+  <si>
+    <t>00131502</t>
+  </si>
+  <si>
+    <t>Harry Potter 6 (ov)</t>
+  </si>
+  <si>
+    <t>00131503</t>
+  </si>
+  <si>
+    <t>Harry Potter 7 (part 1) (ov)</t>
+  </si>
+  <si>
+    <t>00131504</t>
+  </si>
+  <si>
+    <t>Harry Potter 7 (part 2) (ov)</t>
+  </si>
+  <si>
+    <t>00131579</t>
+  </si>
+  <si>
+    <t>Final Destination Bloodlines</t>
+  </si>
+  <si>
+    <t>29521</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Fabula</t>
+  </si>
+  <si>
+    <t>2D Digital LI-NL</t>
+  </si>
+  <si>
+    <t>29715</t>
+  </si>
+  <si>
+    <t>Warfare</t>
+  </si>
+  <si>
+    <t>2D Digital EN-NL</t>
+  </si>
+  <si>
+    <t>29848</t>
+  </si>
+  <si>
+    <t>Conclave</t>
+  </si>
+  <si>
+    <t>350010</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>Dog Man (2D NL)</t>
+  </si>
+  <si>
+    <t>350152</t>
+  </si>
+  <si>
+    <t>Drop (2D OV)</t>
+  </si>
+  <si>
+    <t>350493</t>
+  </si>
+  <si>
+    <t>Until Dawn (2D OV)</t>
+  </si>
+  <si>
+    <t>350494</t>
+  </si>
+  <si>
+    <t>Black Bag (2D OV)</t>
+  </si>
+  <si>
+    <t>350622</t>
+  </si>
+  <si>
+    <t>Mamma Mia! Here We Go Again (2D OV)</t>
+  </si>
+  <si>
+    <t>43312</t>
+  </si>
+  <si>
+    <t>POM</t>
+  </si>
+  <si>
+    <t>Pink Floyd at Pompeii - MCMLXXII</t>
+  </si>
+  <si>
+    <t>43705</t>
+  </si>
+  <si>
+    <t>OCEAN with David Attenborough</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>2D Digital XX-XX</t>
+  </si>
+  <si>
+    <t>7877</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Hitpig!</t>
+  </si>
+  <si>
+    <t>2D Digital NL-XX</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Hard Truths</t>
+  </si>
+  <si>
+    <t>83327</t>
+  </si>
+  <si>
+    <t>WDS</t>
+  </si>
+  <si>
+    <t>Disney Snow White OV</t>
+  </si>
+  <si>
+    <t>83328</t>
+  </si>
+  <si>
+    <t>Disney Snow White NL</t>
+  </si>
+  <si>
+    <t>83488</t>
+  </si>
+  <si>
+    <t>The Amateur</t>
+  </si>
+  <si>
+    <t>83881</t>
+  </si>
+  <si>
+    <t>Thunderbolts* (2D)</t>
+  </si>
+  <si>
+    <t>83914</t>
+  </si>
+  <si>
+    <t>Thunderbolts* (3D)</t>
   </si>
   <si>
     <t>Expired</t>
   </si>
   <si>
-    <t>00077008</t>
-  </si>
-  <si>
-    <t>Flight Risk</t>
-  </si>
-  <si>
-    <t>00077190</t>
-  </si>
-  <si>
-    <t>Last Breath</t>
-  </si>
-  <si>
-    <t>00129858</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>Se7en (30th Anniversary)</t>
-  </si>
-  <si>
-    <t>00129983</t>
-  </si>
-  <si>
-    <t>Companion</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>NDP</t>
-  </si>
-  <si>
-    <t>Rebellious</t>
-  </si>
-  <si>
-    <t>2D Digital NL-XX</t>
-  </si>
-  <si>
-    <t>27841</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>Better Man 2D</t>
-  </si>
-  <si>
-    <t>2D Digital EN-NL</t>
-  </si>
-  <si>
-    <t>28062</t>
-  </si>
-  <si>
-    <t>Den Of Thieves 2: Pantera</t>
-  </si>
-  <si>
-    <t>28510</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>28664</t>
-  </si>
-  <si>
-    <t>The Monkey</t>
-  </si>
-  <si>
-    <t>28820</t>
-  </si>
-  <si>
-    <t>Patsers</t>
-  </si>
-  <si>
-    <t>346868</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>Wicked (2D OV)</t>
-  </si>
-  <si>
-    <t>347708</t>
-  </si>
-  <si>
-    <t>Nosferatu (2D OV)</t>
-  </si>
-  <si>
-    <t>347752</t>
-  </si>
-  <si>
-    <t>Sonic 3 (2D NL)</t>
-  </si>
-  <si>
-    <t>348656</t>
-  </si>
-  <si>
-    <t>Bridget Jones Mad About The Boy</t>
-  </si>
-  <si>
-    <t>348832</t>
-  </si>
-  <si>
-    <t>Attack On Titan: The Last Attack (2D OV)</t>
-  </si>
-  <si>
-    <t>348990</t>
-  </si>
-  <si>
-    <t>September 5</t>
-  </si>
-  <si>
-    <t>349064</t>
-  </si>
-  <si>
-    <t>One Of Them Days</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>REV</t>
-  </si>
-  <si>
-    <t>Een Nacht in de dierentuin</t>
-  </si>
-  <si>
-    <t>39914</t>
-  </si>
-  <si>
-    <t>POM</t>
-  </si>
-  <si>
-    <t>Becoming Led Zeppelin (2D EN-NL)</t>
-  </si>
-  <si>
-    <t>40542</t>
-  </si>
-  <si>
-    <t>Dragon Ball Z: Battle of Gods (Extended Cut)</t>
-  </si>
-  <si>
-    <t>2D Digital EN-XX</t>
-  </si>
-  <si>
-    <t>7197</t>
-  </si>
-  <si>
-    <t>15-02-2025</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>The Day the Earth Blew Up: A Looney Tunes Movie (2D NL-XX)</t>
-  </si>
-  <si>
-    <t>7198</t>
-  </si>
-  <si>
-    <t>The Day the Earth Blew Up: A Looney Tunes Movie (2D EN-NL)</t>
-  </si>
-  <si>
-    <t>7226</t>
-  </si>
-  <si>
-    <t>14-02-2025</t>
-  </si>
-  <si>
-    <t>7227</t>
-  </si>
-  <si>
-    <t>7309</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Een nieuwe vriend voor Dikkie Dik</t>
-  </si>
-  <si>
-    <t>7401</t>
-  </si>
-  <si>
-    <t>K3 en het lied van de zeemeermin</t>
-  </si>
-  <si>
-    <t>81709</t>
-  </si>
-  <si>
-    <t>WDS</t>
-  </si>
-  <si>
-    <t>Vaiana 2 (2D NL)</t>
-  </si>
-  <si>
-    <t>82015</t>
-  </si>
-  <si>
-    <t>Mufasa: The Lion King (2D OV)</t>
-  </si>
-  <si>
-    <t>82373</t>
-  </si>
-  <si>
-    <t>Mufasa: The Lion King (2D NL)</t>
-  </si>
-  <si>
-    <t>82490</t>
-  </si>
-  <si>
-    <t>A Real Pain</t>
-  </si>
-  <si>
-    <t>82815</t>
-  </si>
-  <si>
-    <t>Captain America: Brave New World (2D)</t>
-  </si>
-  <si>
-    <t>82891</t>
-  </si>
-  <si>
-    <t>A Complete Unknown</t>
+    <t>E19108945</t>
+  </si>
+  <si>
+    <t>Harry Potter And The Philosopher's Stone (20 Jaar)</t>
   </si>
 </sst>
 </file>
@@ -808,13 +811,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -895,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -907,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -925,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="L2">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -934,22 +960,22 @@
         <v>32</v>
       </c>
       <c r="O2">
-        <v>180</v>
+        <v>238.63</v>
       </c>
       <c r="P2">
-        <v>165.12</v>
+        <v>220.03000000000003</v>
       </c>
       <c r="Q2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R2">
-        <v>180</v>
+        <v>238.63</v>
       </c>
       <c r="S2">
-        <v>165.12</v>
+        <v>220.03000000000003</v>
       </c>
       <c r="T2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -958,30 +984,30 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>180</v>
+        <v>238.63</v>
       </c>
       <c r="X2">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -993,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
@@ -1008,22 +1034,22 @@
         <v>32</v>
       </c>
       <c r="O3">
-        <v>817.5</v>
+        <v>143.5</v>
       </c>
       <c r="P3">
-        <v>749.92</v>
+        <v>131.66</v>
       </c>
       <c r="Q3">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>817.5</v>
+        <v>143.5</v>
       </c>
       <c r="S3">
-        <v>749.92</v>
+        <v>131.66</v>
       </c>
       <c r="T3">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1032,33 +1058,33 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>817.5</v>
+        <v>143.5</v>
       </c>
       <c r="X3">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -1067,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
@@ -1082,22 +1108,22 @@
         <v>32</v>
       </c>
       <c r="O4">
-        <v>382.5</v>
+        <v>976.8</v>
       </c>
       <c r="P4">
-        <v>350.97999999999996</v>
+        <v>897.54</v>
       </c>
       <c r="Q4">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="R4">
-        <v>382.5</v>
+        <v>976.8</v>
       </c>
       <c r="S4">
-        <v>350.97999999999996</v>
+        <v>897.54</v>
       </c>
       <c r="T4">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1106,33 +1132,33 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>382.5</v>
+        <v>976.8</v>
       </c>
       <c r="X4">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
       <c r="F5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -1141,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -1156,22 +1182,22 @@
         <v>32</v>
       </c>
       <c r="O5">
-        <v>645</v>
+        <v>57.5</v>
       </c>
       <c r="P5">
-        <v>591.88</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="Q5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>645</v>
+        <v>57.5</v>
       </c>
       <c r="S5">
-        <v>591.88</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="T5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1180,33 +1206,33 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>645</v>
+        <v>57.5</v>
       </c>
       <c r="X5">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1215,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -1230,22 +1256,22 @@
         <v>32</v>
       </c>
       <c r="O6">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="P6">
-        <v>88.08</v>
+        <v>310.27</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="R6">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="S6">
-        <v>88.08</v>
+        <v>310.27</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1254,42 +1280,42 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="X6">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="B7">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
         <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
@@ -1304,22 +1330,22 @@
         <v>32</v>
       </c>
       <c r="O7">
-        <v>349.5</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>320.65999999999997</v>
+        <v>13.76</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>349.5</v>
+        <v>15</v>
       </c>
       <c r="S7">
-        <v>320.65999999999997</v>
+        <v>13.76</v>
       </c>
       <c r="T7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1328,33 +1354,33 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>349.5</v>
+        <v>15</v>
       </c>
       <c r="X7">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -1363,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
@@ -1378,22 +1404,22 @@
         <v>32</v>
       </c>
       <c r="O8">
-        <v>528.4</v>
+        <v>630</v>
       </c>
       <c r="P8">
-        <v>485.13</v>
+        <v>577.91999999999996</v>
       </c>
       <c r="Q8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="R8">
-        <v>528.4</v>
+        <v>630</v>
       </c>
       <c r="S8">
-        <v>485.13</v>
+        <v>577.91999999999996</v>
       </c>
       <c r="T8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1402,33 +1428,33 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>528.4</v>
+        <v>630</v>
       </c>
       <c r="X8">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -1437,13 +1463,13 @@
         <v>30</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1452,22 +1478,22 @@
         <v>32</v>
       </c>
       <c r="O9">
-        <v>1715.63</v>
+        <v>82.5</v>
       </c>
       <c r="P9">
-        <v>1574.8000000000002</v>
+        <v>75.679999999999993</v>
       </c>
       <c r="Q9">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="R9">
-        <v>1715.63</v>
+        <v>82.5</v>
       </c>
       <c r="S9">
-        <v>1574.8000000000002</v>
+        <v>75.679999999999993</v>
       </c>
       <c r="T9">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1476,33 +1502,33 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1715.63</v>
+        <v>82.5</v>
       </c>
       <c r="X9">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -1511,13 +1537,13 @@
         <v>30</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1526,22 +1552,22 @@
         <v>32</v>
       </c>
       <c r="O10">
-        <v>531.45000000000005</v>
+        <v>657.4</v>
       </c>
       <c r="P10">
-        <v>488.09999999999991</v>
+        <v>605.00999999999988</v>
       </c>
       <c r="Q10">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="R10">
-        <v>531.45000000000005</v>
+        <v>657.4</v>
       </c>
       <c r="S10">
-        <v>488.09999999999991</v>
+        <v>605.00999999999988</v>
       </c>
       <c r="T10">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1550,72 +1576,72 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>531.45000000000005</v>
+        <v>657.4</v>
       </c>
       <c r="X10">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>38.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>379.5</v>
+      </c>
+      <c r="P11">
+        <v>349.35999999999996</v>
+      </c>
+      <c r="Q11">
         <v>41</v>
       </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11">
-        <v>104</v>
-      </c>
-      <c r="P11">
-        <v>95.44</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
       <c r="R11">
-        <v>104</v>
+        <v>379.5</v>
       </c>
       <c r="S11">
-        <v>95.44</v>
+        <v>349.35999999999996</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1623,31 +1649,34 @@
       <c r="V11">
         <v>0</v>
       </c>
+      <c r="W11">
+        <v>379.5</v>
+      </c>
       <c r="X11">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -1656,37 +1685,37 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
         <v>32</v>
       </c>
       <c r="O12">
-        <v>222</v>
+        <v>1492.5</v>
       </c>
       <c r="P12">
-        <v>203.72</v>
+        <v>1369.12</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="R12">
-        <v>222</v>
+        <v>1492.5</v>
       </c>
       <c r="S12">
-        <v>203.72</v>
+        <v>1369.12</v>
       </c>
       <c r="T12">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1695,48 +1724,48 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>222</v>
+        <v>1492.5</v>
       </c>
       <c r="X12">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
       <c r="L13">
-        <v>36.369999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1745,22 +1774,22 @@
         <v>32</v>
       </c>
       <c r="O13">
-        <v>630.9</v>
+        <v>165.5</v>
       </c>
       <c r="P13">
-        <v>578.72</v>
+        <v>152.66</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="R13">
-        <v>630.9</v>
+        <v>165.5</v>
       </c>
       <c r="S13">
-        <v>578.72</v>
+        <v>152.66</v>
       </c>
       <c r="T13">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1769,48 +1798,48 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>630.9</v>
+        <v>165.5</v>
       </c>
       <c r="X13">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="K14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
       <c r="L14">
-        <v>37.25</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1819,22 +1848,16 @@
         <v>32</v>
       </c>
       <c r="O14">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>435.67</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
-      </c>
-      <c r="R14">
-        <v>475</v>
-      </c>
-      <c r="S14">
-        <v>435.67</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1842,34 +1865,31 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>475</v>
-      </c>
       <c r="X14">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -1878,13 +1898,13 @@
         <v>30</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15">
-        <v>37.25</v>
+        <v>38.5</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1893,22 +1913,22 @@
         <v>32</v>
       </c>
       <c r="O15">
-        <v>119.5</v>
+        <v>4579</v>
       </c>
       <c r="P15">
-        <v>109.63</v>
+        <v>4207.0600000000004</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="R15">
-        <v>119.5</v>
+        <v>4579</v>
       </c>
       <c r="S15">
-        <v>109.63</v>
+        <v>4207.0600000000004</v>
       </c>
       <c r="T15">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1917,27 +1937,27 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>119.5</v>
+        <v>4579</v>
       </c>
       <c r="X15">
-        <v>13</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1952,13 +1972,13 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16">
-        <v>37.75</v>
+        <v>40</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1966,23 +1986,11 @@
       <c r="N16" t="s">
         <v>32</v>
       </c>
-      <c r="O16">
-        <v>750</v>
-      </c>
-      <c r="P16">
-        <v>688</v>
-      </c>
       <c r="Q16">
-        <v>106</v>
-      </c>
-      <c r="R16">
-        <v>750</v>
-      </c>
-      <c r="S16">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1990,34 +1998,31 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
-        <v>750</v>
-      </c>
       <c r="X16">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -2026,13 +2031,13 @@
         <v>30</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17">
-        <v>37.75</v>
+        <v>38.5</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2041,22 +2046,22 @@
         <v>32</v>
       </c>
       <c r="O17">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="P17">
-        <v>275.2</v>
+        <v>628.20000000000005</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="R17">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="S17">
-        <v>275.2</v>
+        <v>628.20000000000005</v>
       </c>
       <c r="T17">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2065,33 +2070,33 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="X17">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -2106,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="L18">
-        <v>37.75</v>
+        <v>38.5</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2115,22 +2120,22 @@
         <v>32</v>
       </c>
       <c r="O18">
-        <v>1116.4000000000001</v>
+        <v>112.5</v>
       </c>
       <c r="P18">
-        <v>1024.22</v>
+        <v>103.19999999999999</v>
       </c>
       <c r="Q18">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="R18">
-        <v>1116.4000000000001</v>
+        <v>112.5</v>
       </c>
       <c r="S18">
-        <v>1024.22</v>
+        <v>103.19999999999999</v>
       </c>
       <c r="T18">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2139,33 +2144,33 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1116.4000000000001</v>
+        <v>112.5</v>
       </c>
       <c r="X18">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -2180,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="L19">
-        <v>37.25</v>
+        <v>38.5</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2189,22 +2194,22 @@
         <v>32</v>
       </c>
       <c r="O19">
-        <v>660.5</v>
+        <v>67</v>
       </c>
       <c r="P19">
-        <v>607.02</v>
+        <v>61.620000000000005</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>660.5</v>
+        <v>67</v>
       </c>
       <c r="S19">
-        <v>607.02</v>
+        <v>61.620000000000005</v>
       </c>
       <c r="T19">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2213,33 +2218,33 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>660.5</v>
+        <v>67</v>
       </c>
       <c r="X19">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -2248,13 +2253,13 @@
         <v>30</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20">
-        <v>37.25</v>
+        <v>38.5</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2263,22 +2268,22 @@
         <v>32</v>
       </c>
       <c r="O20">
-        <v>260.5</v>
+        <v>57</v>
       </c>
       <c r="P20">
-        <v>238.99</v>
+        <v>52.29</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>260.5</v>
+        <v>57</v>
       </c>
       <c r="S20">
-        <v>238.99</v>
+        <v>52.29</v>
       </c>
       <c r="T20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2287,30 +2292,30 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>260.5</v>
+        <v>57</v>
       </c>
       <c r="X20">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -2328,7 +2333,7 @@
         <v>31</v>
       </c>
       <c r="L21">
-        <v>37.25</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2337,22 +2342,22 @@
         <v>32</v>
       </c>
       <c r="O21">
-        <v>195.5</v>
+        <v>245.7</v>
       </c>
       <c r="P21">
-        <v>179.35</v>
+        <v>225.94</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R21">
-        <v>195.5</v>
+        <v>245.7</v>
       </c>
       <c r="S21">
-        <v>179.35</v>
+        <v>225.94</v>
       </c>
       <c r="T21">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2361,33 +2366,33 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>195.5</v>
+        <v>245.7</v>
       </c>
       <c r="X21">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -2396,13 +2401,13 @@
         <v>30</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22">
-        <v>38.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2411,22 +2416,22 @@
         <v>32</v>
       </c>
       <c r="O22">
-        <v>707.63</v>
+        <v>11.5</v>
       </c>
       <c r="P22">
-        <v>649.4899999999999</v>
+        <v>10.55</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>707.63</v>
+        <v>11.5</v>
       </c>
       <c r="S22">
-        <v>649.4899999999999</v>
+        <v>10.55</v>
       </c>
       <c r="T22">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2434,34 +2439,31 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>707.63</v>
-      </c>
       <c r="X22">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -2470,13 +2472,13 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
       </c>
       <c r="L23">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2485,22 +2487,22 @@
         <v>32</v>
       </c>
       <c r="O23">
-        <v>40.5</v>
+        <v>6414.5</v>
       </c>
       <c r="P23">
-        <v>37.17</v>
+        <v>5889.2</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>628</v>
       </c>
       <c r="R23">
-        <v>40.5</v>
+        <v>6414.5</v>
       </c>
       <c r="S23">
-        <v>37.17</v>
+        <v>5889.2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>628</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2509,33 +2511,33 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>40.5</v>
+        <v>6414.5</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2544,13 +2546,13 @@
         <v>30</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>31</v>
       </c>
       <c r="L24">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2559,22 +2561,22 @@
         <v>32</v>
       </c>
       <c r="O24">
-        <v>94</v>
+        <v>539.5</v>
       </c>
       <c r="P24">
-        <v>86.26</v>
+        <v>495.08</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="R24">
-        <v>94</v>
+        <v>539.5</v>
       </c>
       <c r="S24">
-        <v>86.26</v>
+        <v>495.08</v>
       </c>
       <c r="T24">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2582,34 +2584,31 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>94</v>
-      </c>
       <c r="X24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -2624,7 +2623,7 @@
         <v>31</v>
       </c>
       <c r="L25">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2633,22 +2632,22 @@
         <v>32</v>
       </c>
       <c r="O25">
-        <v>4075</v>
+        <v>4444</v>
       </c>
       <c r="P25">
-        <v>3738.8799999999997</v>
+        <v>4080.5900000000006</v>
       </c>
       <c r="Q25">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="R25">
-        <v>4075</v>
+        <v>4444</v>
       </c>
       <c r="S25">
-        <v>3738.8799999999997</v>
+        <v>4080.5900000000006</v>
       </c>
       <c r="T25">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2657,33 +2656,33 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>4075</v>
+        <v>4444</v>
       </c>
       <c r="X25">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -2692,13 +2691,13 @@
         <v>30</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
       </c>
       <c r="L26">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2707,22 +2706,22 @@
         <v>32</v>
       </c>
       <c r="O26">
-        <v>3042.25</v>
+        <v>873.5</v>
       </c>
       <c r="P26">
-        <v>2792.1000000000004</v>
+        <v>801.99</v>
       </c>
       <c r="Q26">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="R26">
-        <v>3042.25</v>
+        <v>873.5</v>
       </c>
       <c r="S26">
-        <v>2792.1000000000004</v>
+        <v>801.99</v>
       </c>
       <c r="T26">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2730,34 +2729,31 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
-        <v>3042.25</v>
-      </c>
       <c r="X26">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -2766,13 +2762,13 @@
         <v>30</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
         <v>31</v>
       </c>
       <c r="L27">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2780,23 +2776,11 @@
       <c r="N27" t="s">
         <v>32</v>
       </c>
-      <c r="O27">
-        <v>2362</v>
-      </c>
-      <c r="P27">
-        <v>2167.3200000000006</v>
-      </c>
       <c r="Q27">
-        <v>215</v>
-      </c>
-      <c r="R27">
-        <v>2362</v>
-      </c>
-      <c r="S27">
-        <v>2167.3200000000006</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2804,34 +2788,31 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>2362</v>
-      </c>
       <c r="X27">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -2840,13 +2821,13 @@
         <v>30</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
       <c r="L28">
-        <v>38.5</v>
+        <v>41.15</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2854,23 +2835,11 @@
       <c r="N28" t="s">
         <v>32</v>
       </c>
-      <c r="O28">
-        <v>1901.5</v>
-      </c>
-      <c r="P28">
-        <v>1746.7299999999998</v>
-      </c>
       <c r="Q28">
-        <v>178</v>
-      </c>
-      <c r="R28">
-        <v>1901.5</v>
-      </c>
-      <c r="S28">
-        <v>1746.7299999999998</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2878,34 +2847,31 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
-        <v>1901.5</v>
-      </c>
       <c r="X28">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -2914,13 +2880,13 @@
         <v>30</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
         <v>31</v>
       </c>
       <c r="L29">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2929,22 +2895,22 @@
         <v>32</v>
       </c>
       <c r="O29">
-        <v>1285.9000000000001</v>
+        <v>3591.53</v>
       </c>
       <c r="P29">
-        <v>1179.9499999999998</v>
+        <v>3295.8</v>
       </c>
       <c r="Q29">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="R29">
-        <v>1285.9000000000001</v>
+        <v>3591.53</v>
       </c>
       <c r="S29">
-        <v>1179.9499999999998</v>
+        <v>3295.8</v>
       </c>
       <c r="T29">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2953,33 +2919,33 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1285.9000000000001</v>
+        <v>3591.53</v>
       </c>
       <c r="X29">
-        <v>118</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -2988,13 +2954,13 @@
         <v>30</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
         <v>31</v>
       </c>
       <c r="L30">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3003,22 +2969,22 @@
         <v>32</v>
       </c>
       <c r="O30">
-        <v>1838.5</v>
+        <v>1387.2</v>
       </c>
       <c r="P30">
-        <v>1687.6399999999996</v>
+        <v>1277.6099999999999</v>
       </c>
       <c r="Q30">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="R30">
-        <v>1838.5</v>
+        <v>1387.2</v>
       </c>
       <c r="S30">
-        <v>1687.6399999999996</v>
+        <v>1277.6099999999999</v>
       </c>
       <c r="T30">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3026,34 +2992,31 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>1838.5</v>
-      </c>
       <c r="X30">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F31">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -3062,25 +3025,37 @@
         <v>30</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" t="s">
         <v>31</v>
       </c>
       <c r="L31">
-        <v>38.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O31">
+        <v>3968.39</v>
+      </c>
+      <c r="P31">
+        <v>3642.9</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="R31">
+        <v>3968.39</v>
+      </c>
+      <c r="S31">
+        <v>3642.9</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3088,46 +3063,49 @@
       <c r="V31">
         <v>0</v>
       </c>
+      <c r="W31">
+        <v>3968.39</v>
+      </c>
       <c r="X31">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
       <c r="K32" t="s">
         <v>31</v>
       </c>
       <c r="L32">
-        <v>38.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3136,22 +3114,22 @@
         <v>32</v>
       </c>
       <c r="O32">
-        <v>388</v>
+        <v>2293.4299999999998</v>
       </c>
       <c r="P32">
-        <v>356.03999999999996</v>
+        <v>2104.91</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="R32">
-        <v>388</v>
+        <v>2293.4299999999998</v>
       </c>
       <c r="S32">
-        <v>356.03999999999996</v>
+        <v>2104.91</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3159,34 +3137,31 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>388</v>
-      </c>
       <c r="X32">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>1224</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -3201,7 +3176,7 @@
         <v>31</v>
       </c>
       <c r="L33">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3210,22 +3185,22 @@
         <v>32</v>
       </c>
       <c r="O33">
-        <v>2521.9299999999998</v>
+        <v>676.72</v>
       </c>
       <c r="P33">
-        <v>2314.73</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="R33">
-        <v>2521.9299999999998</v>
+        <v>676.72</v>
       </c>
       <c r="S33">
-        <v>2314.73</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3234,30 +3209,30 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>2521.9299999999998</v>
+        <v>676.72</v>
       </c>
       <c r="X33">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1225</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -3275,7 +3250,7 @@
         <v>31</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3284,22 +3259,22 @@
         <v>32</v>
       </c>
       <c r="O34">
-        <v>87.5</v>
+        <v>66.5</v>
       </c>
       <c r="P34">
-        <v>80.42</v>
+        <v>61.04</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R34">
-        <v>87.5</v>
+        <v>66.5</v>
       </c>
       <c r="S34">
-        <v>80.42</v>
+        <v>61.04</v>
       </c>
       <c r="T34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3307,31 +3282,28 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>87.5</v>
-      </c>
       <c r="X34">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1172</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -3349,7 +3321,7 @@
         <v>31</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3358,22 +3330,22 @@
         <v>32</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>676.72</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>676.72</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3381,28 +3353,31 @@
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="W35">
+        <v>676.72</v>
+      </c>
       <c r="X35">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1173</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
@@ -3420,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="L36">
-        <v>40.6</v>
+        <v>35</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3429,22 +3404,22 @@
         <v>32</v>
       </c>
       <c r="O36">
-        <v>798.76</v>
+        <v>148.5</v>
       </c>
       <c r="P36">
-        <v>732.68</v>
+        <v>136.29</v>
       </c>
       <c r="Q36">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="R36">
-        <v>798.76</v>
+        <v>148.5</v>
       </c>
       <c r="S36">
-        <v>732.68</v>
+        <v>136.29</v>
       </c>
       <c r="T36">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3452,31 +3427,28 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>798.76</v>
-      </c>
       <c r="X36">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1092</v>
       </c>
       <c r="G37" t="s">
         <v>28</v>
@@ -3494,7 +3466,7 @@
         <v>31</v>
       </c>
       <c r="L37">
-        <v>40.6</v>
+        <v>35</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3503,22 +3475,22 @@
         <v>32</v>
       </c>
       <c r="O37">
-        <v>812</v>
+        <v>676.72</v>
       </c>
       <c r="P37">
-        <v>744.87</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="R37">
-        <v>812</v>
+        <v>676.72</v>
       </c>
       <c r="S37">
-        <v>744.87</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3527,30 +3499,30 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>812</v>
+        <v>676.72</v>
       </c>
       <c r="X37">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>1093</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -3568,7 +3540,7 @@
         <v>31</v>
       </c>
       <c r="L38">
-        <v>40.6</v>
+        <v>35</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3577,22 +3549,22 @@
         <v>32</v>
       </c>
       <c r="O38">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="P38">
-        <v>42.2</v>
+        <v>272.58</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R38">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="S38">
-        <v>42.2</v>
+        <v>272.58</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3606,25 +3578,25 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -3639,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3648,22 +3620,22 @@
         <v>32</v>
       </c>
       <c r="O39">
-        <v>15</v>
+        <v>676.72</v>
       </c>
       <c r="P39">
-        <v>13.76</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="R39">
-        <v>15</v>
+        <v>676.72</v>
       </c>
       <c r="S39">
-        <v>13.76</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3672,33 +3644,33 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>15</v>
+        <v>676.72</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>1016</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -3707,13 +3679,13 @@
         <v>30</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
       </c>
       <c r="L40">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3722,22 +3694,22 @@
         <v>32</v>
       </c>
       <c r="O40">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="P40">
-        <v>42.2</v>
+        <v>270.56</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="R40">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="S40">
-        <v>42.2</v>
+        <v>270.56</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3745,50 +3717,47 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
-        <v>46</v>
-      </c>
       <c r="X40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41">
+        <v>930</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41">
         <v>35</v>
       </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41">
-        <v>27.5</v>
-      </c>
       <c r="M41">
         <v>0</v>
       </c>
@@ -3796,22 +3765,22 @@
         <v>32</v>
       </c>
       <c r="O41">
-        <v>57.5</v>
+        <v>676.72</v>
       </c>
       <c r="P41">
-        <v>52.75</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="R41">
-        <v>57.5</v>
+        <v>676.72</v>
       </c>
       <c r="S41">
-        <v>52.75</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3820,33 +3789,33 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>57.5</v>
+        <v>676.72</v>
       </c>
       <c r="X41">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>931</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -3855,13 +3824,13 @@
         <v>30</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>31</v>
       </c>
       <c r="L42">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3870,22 +3839,22 @@
         <v>32</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>104.64</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>104.64</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3899,25 +3868,25 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>825</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -3932,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="L43">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3941,22 +3910,22 @@
         <v>32</v>
       </c>
       <c r="O43">
-        <v>270.89999999999998</v>
+        <v>676.72</v>
       </c>
       <c r="P43">
-        <v>248.93</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="R43">
-        <v>270.89999999999998</v>
+        <v>676.72</v>
       </c>
       <c r="S43">
-        <v>248.93</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3965,72 +3934,72 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>270.89999999999998</v>
+        <v>676.72</v>
       </c>
       <c r="X43">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44">
+        <v>826</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44">
+        <v>81</v>
+      </c>
+      <c r="P44">
+        <v>74.34</v>
+      </c>
+      <c r="Q44">
         <v>6</v>
       </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="R44">
         <v>81</v>
       </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44">
-        <v>27.5</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
       <c r="S44">
-        <v>0</v>
+        <v>74.34</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -4044,25 +4013,25 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>755</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -4077,7 +4046,7 @@
         <v>31</v>
       </c>
       <c r="L45">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4086,22 +4055,22 @@
         <v>32</v>
       </c>
       <c r="O45">
-        <v>118.63</v>
+        <v>676.72</v>
       </c>
       <c r="P45">
-        <v>108.87</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="R45">
-        <v>118.63</v>
+        <v>200</v>
       </c>
       <c r="S45">
-        <v>108.87</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -4110,33 +4079,33 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>118.63</v>
+        <v>676.72</v>
       </c>
       <c r="X45">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -4151,7 +4120,7 @@
         <v>31</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4160,22 +4129,22 @@
         <v>32</v>
       </c>
       <c r="O46">
-        <v>2074.1</v>
+        <v>202.5</v>
       </c>
       <c r="P46">
-        <v>1904.1700000000003</v>
+        <v>185.85</v>
       </c>
       <c r="Q46">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="R46">
-        <v>2074.1</v>
+        <v>202.5</v>
       </c>
       <c r="S46">
-        <v>1904.1700000000003</v>
+        <v>185.85</v>
       </c>
       <c r="T46">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4183,50 +4152,47 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>2074.1</v>
-      </c>
       <c r="X46">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47">
+        <v>721</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47">
-        <v>40</v>
-      </c>
       <c r="M47">
         <v>0</v>
       </c>
@@ -4234,22 +4200,22 @@
         <v>32</v>
       </c>
       <c r="O47">
-        <v>1849.39</v>
+        <v>676.72</v>
       </c>
       <c r="P47">
-        <v>1698.0200000000002</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="R47">
-        <v>1849.39</v>
+        <v>676.72</v>
       </c>
       <c r="S47">
-        <v>1698.0200000000002</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -4258,33 +4224,33 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1849.39</v>
+        <v>676.72</v>
       </c>
       <c r="X47">
-        <v>182</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>722</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -4299,7 +4265,7 @@
         <v>31</v>
       </c>
       <c r="L48">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4308,22 +4274,22 @@
         <v>32</v>
       </c>
       <c r="O48">
-        <v>1907.53</v>
+        <v>297</v>
       </c>
       <c r="P48">
-        <v>1751.38</v>
+        <v>272.58</v>
       </c>
       <c r="Q48">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="R48">
-        <v>1907.53</v>
+        <v>297</v>
       </c>
       <c r="S48">
-        <v>1751.38</v>
+        <v>272.58</v>
       </c>
       <c r="T48">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4331,34 +4297,31 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>1907.53</v>
-      </c>
       <c r="X48">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -4367,13 +4330,13 @@
         <v>30</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
         <v>31</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4382,22 +4345,22 @@
         <v>32</v>
       </c>
       <c r="O49">
-        <v>2251.8000000000002</v>
+        <v>1205</v>
       </c>
       <c r="P49">
-        <v>2067.12</v>
+        <v>1105.6299999999999</v>
       </c>
       <c r="Q49">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="R49">
-        <v>2251.8000000000002</v>
+        <v>1205</v>
       </c>
       <c r="S49">
-        <v>2067.12</v>
+        <v>1105.6299999999999</v>
       </c>
       <c r="T49">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -4405,34 +4368,31 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>2251.8000000000002</v>
-      </c>
       <c r="X49">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -4447,7 +4407,7 @@
         <v>31</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4456,22 +4416,22 @@
         <v>32</v>
       </c>
       <c r="O50">
-        <v>1568.9</v>
+        <v>114</v>
       </c>
       <c r="P50">
-        <v>1440.02</v>
+        <v>104.64</v>
       </c>
       <c r="Q50">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="R50">
-        <v>1568.9</v>
+        <v>114</v>
       </c>
       <c r="S50">
-        <v>1440.02</v>
+        <v>104.64</v>
       </c>
       <c r="T50">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4480,33 +4440,33 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1568.9</v>
+        <v>114</v>
       </c>
       <c r="X50">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -4521,7 +4481,7 @@
         <v>31</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4530,22 +4490,22 @@
         <v>32</v>
       </c>
       <c r="O51">
-        <v>1614</v>
+        <v>7.5</v>
       </c>
       <c r="P51">
-        <v>1480.77</v>
+        <v>6.88</v>
       </c>
       <c r="Q51">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>1614</v>
+        <v>7.5</v>
       </c>
       <c r="S51">
-        <v>1480.77</v>
+        <v>6.88</v>
       </c>
       <c r="T51">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -4554,33 +4514,33 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1614</v>
+        <v>7.5</v>
       </c>
       <c r="X51">
-        <v>131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -4589,13 +4549,13 @@
         <v>30</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K52" t="s">
         <v>31</v>
       </c>
       <c r="L52">
-        <v>41.75</v>
+        <v>37.5</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4604,22 +4564,22 @@
         <v>32</v>
       </c>
       <c r="O52">
-        <v>138.5</v>
+        <v>332</v>
       </c>
       <c r="P52">
-        <v>127.08</v>
+        <v>304.63</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="R52">
-        <v>138.5</v>
+        <v>332</v>
       </c>
       <c r="S52">
-        <v>127.08</v>
+        <v>304.63</v>
       </c>
       <c r="T52">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4628,49 +4588,49 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>138.5</v>
+        <v>332</v>
       </c>
       <c r="X52">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53">
         <v>35</v>
       </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53">
-        <v>41.75</v>
-      </c>
       <c r="M53">
         <v>0</v>
       </c>
@@ -4678,22 +4638,22 @@
         <v>32</v>
       </c>
       <c r="O53">
-        <v>17</v>
+        <v>367.5</v>
       </c>
       <c r="P53">
-        <v>15.6</v>
+        <v>337.15999999999997</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="R53">
-        <v>17</v>
+        <v>367.5</v>
       </c>
       <c r="S53">
-        <v>15.6</v>
+        <v>337.15999999999997</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4702,33 +4662,33 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>17</v>
+        <v>367.5</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -4743,7 +4703,7 @@
         <v>31</v>
       </c>
       <c r="L54">
-        <v>41.75</v>
+        <v>35</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4752,22 +4712,22 @@
         <v>32</v>
       </c>
       <c r="O54">
-        <v>72.5</v>
+        <v>763</v>
       </c>
       <c r="P54">
-        <v>66.5</v>
+        <v>700.3</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="R54">
-        <v>72.5</v>
+        <v>763</v>
       </c>
       <c r="S54">
-        <v>66.5</v>
+        <v>700.3</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4776,33 +4736,33 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>72.5</v>
+        <v>763</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
         <v>91</v>
       </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -4817,7 +4777,7 @@
         <v>31</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4826,22 +4786,22 @@
         <v>32</v>
       </c>
       <c r="O55">
-        <v>115.5</v>
+        <v>619</v>
       </c>
       <c r="P55">
-        <v>106</v>
+        <v>568.07000000000005</v>
       </c>
       <c r="Q55">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="R55">
-        <v>115.5</v>
+        <v>619</v>
       </c>
       <c r="S55">
-        <v>106</v>
+        <v>568.07000000000005</v>
       </c>
       <c r="T55">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4850,30 +4810,30 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>115.5</v>
+        <v>619</v>
       </c>
       <c r="X55">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
         <v>28</v>
@@ -4891,7 +4851,7 @@
         <v>31</v>
       </c>
       <c r="L56">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4900,22 +4860,22 @@
         <v>32</v>
       </c>
       <c r="O56">
-        <v>26.5</v>
+        <v>1779</v>
       </c>
       <c r="P56">
-        <v>24.46</v>
+        <v>1632.8799999999999</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="R56">
-        <v>26.5</v>
+        <v>1779</v>
       </c>
       <c r="S56">
-        <v>24.46</v>
+        <v>1632.8799999999999</v>
       </c>
       <c r="T56">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4924,30 +4884,30 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>26.5</v>
+        <v>1779</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
         <v>28</v>
@@ -4965,7 +4925,7 @@
         <v>31</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4974,22 +4934,22 @@
         <v>32</v>
       </c>
       <c r="O57">
-        <v>138</v>
+        <v>217.5</v>
       </c>
       <c r="P57">
-        <v>126.6</v>
+        <v>199.82000000000002</v>
       </c>
       <c r="Q57">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="R57">
-        <v>138</v>
+        <v>217.5</v>
       </c>
       <c r="S57">
-        <v>126.6</v>
+        <v>199.82000000000002</v>
       </c>
       <c r="T57">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4998,30 +4958,30 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>138</v>
+        <v>217.5</v>
       </c>
       <c r="X57">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
@@ -5048,22 +5008,22 @@
         <v>32</v>
       </c>
       <c r="O58">
-        <v>771.4</v>
+        <v>26.5</v>
       </c>
       <c r="P58">
-        <v>707.6400000000001</v>
+        <v>24.46</v>
       </c>
       <c r="Q58">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="R58">
-        <v>771.4</v>
+        <v>26.5</v>
       </c>
       <c r="S58">
-        <v>707.6400000000001</v>
+        <v>24.46</v>
       </c>
       <c r="T58">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5072,30 +5032,30 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>771.4</v>
+        <v>26.5</v>
       </c>
       <c r="X58">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>28</v>
@@ -5122,22 +5082,22 @@
         <v>32</v>
       </c>
       <c r="O59">
-        <v>367.5</v>
+        <v>125.5</v>
       </c>
       <c r="P59">
-        <v>337.31999999999994</v>
+        <v>115.13</v>
       </c>
       <c r="Q59">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="R59">
-        <v>367.5</v>
+        <v>125.5</v>
       </c>
       <c r="S59">
-        <v>337.31999999999994</v>
+        <v>115.13</v>
       </c>
       <c r="T59">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -5146,30 +5106,30 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>367.5</v>
+        <v>125.5</v>
       </c>
       <c r="X59">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
         <v>28</v>
@@ -5187,7 +5147,7 @@
         <v>31</v>
       </c>
       <c r="L60">
-        <v>41.25</v>
+        <v>41</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5196,22 +5156,22 @@
         <v>32</v>
       </c>
       <c r="O60">
-        <v>914.1</v>
+        <v>2437.3000000000002</v>
       </c>
       <c r="P60">
-        <v>839.29000000000008</v>
+        <v>2237.81</v>
       </c>
       <c r="Q60">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="R60">
-        <v>914.1</v>
+        <v>2437.3000000000002</v>
       </c>
       <c r="S60">
-        <v>839.29000000000008</v>
+        <v>2237.81</v>
       </c>
       <c r="T60">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5219,28 +5179,31 @@
       <c r="V60">
         <v>0</v>
       </c>
+      <c r="W60">
+        <v>2437.3000000000002</v>
+      </c>
       <c r="X60">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
         <v>28</v>
@@ -5258,7 +5221,7 @@
         <v>31</v>
       </c>
       <c r="L61">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -5267,22 +5230,22 @@
         <v>32</v>
       </c>
       <c r="O61">
-        <v>18439.150000000001</v>
+        <v>1096.26</v>
       </c>
       <c r="P61">
-        <v>16920.480000000003</v>
+        <v>1006.9599999999999</v>
       </c>
       <c r="Q61">
-        <v>1697</v>
+        <v>106</v>
       </c>
       <c r="R61">
-        <v>18439.150000000001</v>
+        <v>1096.26</v>
       </c>
       <c r="S61">
-        <v>16920.480000000003</v>
+        <v>1006.9599999999999</v>
       </c>
       <c r="T61">
-        <v>1697</v>
+        <v>106</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -5291,30 +5254,30 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>18439.150000000001</v>
+        <v>1096.26</v>
       </c>
       <c r="X61">
-        <v>1697</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
         <v>28</v>
@@ -5341,22 +5304,22 @@
         <v>32</v>
       </c>
       <c r="O62">
-        <v>17852.41</v>
+        <v>684.26</v>
       </c>
       <c r="P62">
-        <v>16382.600000000004</v>
+        <v>628.69999999999982</v>
       </c>
       <c r="Q62">
-        <v>1548</v>
+        <v>75</v>
       </c>
       <c r="R62">
-        <v>17852.41</v>
+        <v>684.26</v>
       </c>
       <c r="S62">
-        <v>16382.600000000004</v>
+        <v>628.69999999999982</v>
       </c>
       <c r="T62">
-        <v>1548</v>
+        <v>75</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -5365,30 +5328,30 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>17852.41</v>
+        <v>684.26</v>
       </c>
       <c r="X62">
-        <v>1548</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
         <v>28</v>
@@ -5415,22 +5378,22 @@
         <v>32</v>
       </c>
       <c r="O63">
-        <v>9317.1</v>
+        <v>607.9</v>
       </c>
       <c r="P63">
-        <v>8553.5299999999988</v>
+        <v>558.19000000000005</v>
       </c>
       <c r="Q63">
-        <v>811</v>
+        <v>53</v>
       </c>
       <c r="R63">
-        <v>9317.1</v>
+        <v>607.9</v>
       </c>
       <c r="S63">
-        <v>8553.5299999999988</v>
+        <v>558.19000000000005</v>
       </c>
       <c r="T63">
-        <v>811</v>
+        <v>53</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -5438,28 +5401,31 @@
       <c r="V63">
         <v>0</v>
       </c>
+      <c r="W63">
+        <v>607.9</v>
+      </c>
       <c r="X63">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="G64" t="s">
         <v>28</v>
@@ -5480,28 +5446,28 @@
         <v>40</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N64" t="s">
         <v>32</v>
       </c>
       <c r="O64">
-        <v>660.48</v>
+        <v>645</v>
       </c>
       <c r="P64">
-        <v>606.14</v>
+        <v>591.67999999999995</v>
       </c>
       <c r="Q64">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="R64">
-        <v>660.48</v>
+        <v>645</v>
       </c>
       <c r="S64">
-        <v>606.14</v>
+        <v>591.67999999999995</v>
       </c>
       <c r="T64">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -5510,33 +5476,33 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>660.48</v>
+        <v>645</v>
       </c>
       <c r="X64">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -5545,13 +5511,13 @@
         <v>30</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K65" t="s">
         <v>31</v>
       </c>
       <c r="L65">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -5559,23 +5525,11 @@
       <c r="N65" t="s">
         <v>32</v>
       </c>
-      <c r="O65">
-        <v>27</v>
-      </c>
-      <c r="P65">
-        <v>24.78</v>
-      </c>
       <c r="Q65">
-        <v>2</v>
-      </c>
-      <c r="R65">
-        <v>27</v>
-      </c>
-      <c r="S65">
-        <v>24.78</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -5583,34 +5537,31 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65">
-        <v>27</v>
-      </c>
       <c r="X65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -5619,13 +5570,13 @@
         <v>30</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" t="s">
         <v>31</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5634,22 +5585,22 @@
         <v>32</v>
       </c>
       <c r="O66">
-        <v>87</v>
+        <v>1075.33</v>
       </c>
       <c r="P66">
-        <v>79.81</v>
+        <v>986.94000000000017</v>
       </c>
       <c r="Q66">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="R66">
-        <v>87</v>
+        <v>1075.33</v>
       </c>
       <c r="S66">
-        <v>79.81</v>
+        <v>986.94000000000017</v>
       </c>
       <c r="T66">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -5658,33 +5609,33 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>87</v>
+        <v>1075.33</v>
       </c>
       <c r="X66">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F67">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -5705,7 +5656,13 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5725,25 +5682,25 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -5752,13 +5709,13 @@
         <v>30</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K68" t="s">
         <v>31</v>
       </c>
       <c r="L68">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -5767,22 +5724,22 @@
         <v>32</v>
       </c>
       <c r="O68">
-        <v>615</v>
+        <v>15</v>
       </c>
       <c r="P68">
-        <v>564.16000000000008</v>
+        <v>13.76</v>
       </c>
       <c r="Q68">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>615</v>
+        <v>15</v>
       </c>
       <c r="S68">
-        <v>564.16000000000008</v>
+        <v>13.76</v>
       </c>
       <c r="T68">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -5791,33 +5748,33 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>615</v>
+        <v>15</v>
       </c>
       <c r="X68">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -5841,22 +5798,22 @@
         <v>32</v>
       </c>
       <c r="O69">
-        <v>712.5</v>
+        <v>504</v>
       </c>
       <c r="P69">
-        <v>653.6</v>
+        <v>463.28</v>
       </c>
       <c r="Q69">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R69">
-        <v>712.5</v>
+        <v>504</v>
       </c>
       <c r="S69">
-        <v>653.6</v>
+        <v>463.28</v>
       </c>
       <c r="T69">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -5865,33 +5822,33 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>712.5</v>
+        <v>504</v>
       </c>
       <c r="X69">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F70">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -5906,7 +5863,7 @@
         <v>31</v>
       </c>
       <c r="L70">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5915,22 +5872,22 @@
         <v>32</v>
       </c>
       <c r="O70">
-        <v>1928.95</v>
+        <v>142.5</v>
       </c>
       <c r="P70">
-        <v>1770.3300000000002</v>
+        <v>130.82</v>
       </c>
       <c r="Q70">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="R70">
-        <v>1928.95</v>
+        <v>142.5</v>
       </c>
       <c r="S70">
-        <v>1770.3300000000002</v>
+        <v>130.82</v>
       </c>
       <c r="T70">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -5944,25 +5901,25 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -5971,37 +5928,37 @@
         <v>30</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
         <v>31</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N71" t="s">
         <v>32</v>
       </c>
       <c r="O71">
-        <v>366.5</v>
+        <v>13.5</v>
       </c>
       <c r="P71">
-        <v>336.24</v>
+        <v>12.39</v>
       </c>
       <c r="Q71">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>366.5</v>
+        <v>13.5</v>
       </c>
       <c r="S71">
-        <v>336.24</v>
+        <v>12.39</v>
       </c>
       <c r="T71">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -6009,34 +5966,31 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71">
-        <v>366.5</v>
-      </c>
       <c r="X71">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -6045,25 +5999,37 @@
         <v>30</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K72" t="s">
         <v>31</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O72">
+        <v>473.5</v>
+      </c>
+      <c r="P72">
+        <v>435.96999999999997</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="R72">
+        <v>473.5</v>
+      </c>
+      <c r="S72">
+        <v>435.96999999999997</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -6077,25 +6043,25 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -6104,25 +6070,37 @@
         <v>30</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" t="s">
         <v>31</v>
       </c>
       <c r="L73">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O73">
+        <v>140.5</v>
+      </c>
+      <c r="P73">
+        <v>128.93</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="R73">
+        <v>140.5</v>
+      </c>
+      <c r="S73">
+        <v>128.93</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -6136,25 +6114,25 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
@@ -6163,25 +6141,37 @@
         <v>30</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="s">
         <v>31</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O74">
+        <v>208.5</v>
+      </c>
+      <c r="P74">
+        <v>191.57</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="R74">
+        <v>208.5</v>
+      </c>
+      <c r="S74">
+        <v>191.57</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -6195,25 +6185,25 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
@@ -6222,25 +6212,37 @@
         <v>30</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" t="s">
         <v>31</v>
       </c>
       <c r="L75">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O75">
+        <v>30</v>
+      </c>
+      <c r="P75">
+        <v>27.52</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>30</v>
+      </c>
+      <c r="S75">
+        <v>27.52</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -6254,25 +6256,25 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
@@ -6281,25 +6283,37 @@
         <v>30</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76" t="s">
         <v>31</v>
       </c>
       <c r="L76">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O76">
+        <v>2919</v>
+      </c>
+      <c r="P76">
+        <v>2680.3199999999997</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="R76">
+        <v>2919</v>
+      </c>
+      <c r="S76">
+        <v>2680.3199999999997</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -6307,31 +6321,34 @@
       <c r="V76">
         <v>0</v>
       </c>
+      <c r="W76">
+        <v>2919</v>
+      </c>
       <c r="X76">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
@@ -6340,25 +6357,37 @@
         <v>30</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" t="s">
         <v>31</v>
       </c>
       <c r="L77">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="O77">
+        <v>963.33</v>
+      </c>
+      <c r="P77">
+        <v>885.00999999999988</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="R77">
+        <v>963.33</v>
+      </c>
+      <c r="S77">
+        <v>885.00999999999988</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -6372,25 +6401,25 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
@@ -6399,13 +6428,13 @@
         <v>30</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K78" t="s">
         <v>31</v>
       </c>
       <c r="L78">
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6414,22 +6443,22 @@
         <v>32</v>
       </c>
       <c r="O78">
-        <v>552.5</v>
+        <v>13013.03</v>
       </c>
       <c r="P78">
-        <v>507.44</v>
+        <v>11943.780000000002</v>
       </c>
       <c r="Q78">
-        <v>76</v>
+        <v>1093</v>
       </c>
       <c r="R78">
-        <v>552.5</v>
+        <v>13013.03</v>
       </c>
       <c r="S78">
-        <v>507.44</v>
+        <v>11943.780000000002</v>
       </c>
       <c r="T78">
-        <v>76</v>
+        <v>1093</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -6443,25 +6472,25 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
@@ -6470,13 +6499,13 @@
         <v>30</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K79" t="s">
         <v>31</v>
       </c>
       <c r="L79">
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6485,22 +6514,22 @@
         <v>32</v>
       </c>
       <c r="O79">
-        <v>480</v>
+        <v>5677.5</v>
       </c>
       <c r="P79">
-        <v>440.32</v>
+        <v>5211.8600000000006</v>
       </c>
       <c r="Q79">
-        <v>64</v>
+        <v>508</v>
       </c>
       <c r="R79">
-        <v>480</v>
+        <v>5677.5</v>
       </c>
       <c r="S79">
-        <v>440.32</v>
+        <v>5211.8600000000006</v>
       </c>
       <c r="T79">
-        <v>64</v>
+        <v>508</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -6514,25 +6543,25 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
@@ -6541,37 +6570,25 @@
         <v>30</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="s">
         <v>31</v>
       </c>
       <c r="L80">
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80">
-        <v>202.5</v>
-      </c>
-      <c r="P80">
-        <v>185.76</v>
+        <v>137</v>
       </c>
       <c r="Q80">
-        <v>31</v>
-      </c>
-      <c r="R80">
-        <v>202.5</v>
-      </c>
-      <c r="S80">
-        <v>185.76</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -6585,25 +6602,25 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -6612,37 +6629,25 @@
         <v>30</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="s">
         <v>31</v>
       </c>
       <c r="L81">
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81">
-        <v>111.5</v>
-      </c>
-      <c r="P81">
-        <v>102.41999999999999</v>
+        <v>137</v>
       </c>
       <c r="Q81">
-        <v>16</v>
-      </c>
-      <c r="R81">
-        <v>111.5</v>
-      </c>
-      <c r="S81">
-        <v>102.41999999999999</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -6650,34 +6655,31 @@
       <c r="V81">
         <v>0</v>
       </c>
-      <c r="W81">
-        <v>664</v>
-      </c>
       <c r="X81">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
@@ -6686,13 +6688,13 @@
         <v>30</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K82" t="s">
         <v>31</v>
       </c>
       <c r="L82">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -6701,22 +6703,16 @@
         <v>32</v>
       </c>
       <c r="O82">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>75.78</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>12</v>
-      </c>
-      <c r="R82">
-        <v>82.5</v>
-      </c>
-      <c r="S82">
-        <v>75.78</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -6724,1735 +6720,7 @@
       <c r="V82">
         <v>0</v>
       </c>
-      <c r="W82">
-        <v>562.5</v>
-      </c>
       <c r="X82">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83" t="s">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83">
-        <v>39</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83">
-        <v>28.5</v>
-      </c>
-      <c r="P83">
-        <v>26.16</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
-      </c>
-      <c r="R83">
-        <v>28.5</v>
-      </c>
-      <c r="S83">
-        <v>26.16</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
-        <v>75</v>
-      </c>
-      <c r="H84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84">
-        <v>5</v>
-      </c>
-      <c r="K84" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84">
-        <v>38</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84">
-        <v>15</v>
-      </c>
-      <c r="P84">
-        <v>13.76</v>
-      </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="R84">
-        <v>15</v>
-      </c>
-      <c r="S84">
-        <v>13.76</v>
-      </c>
-      <c r="T84">
-        <v>2</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>15</v>
-      </c>
-      <c r="X84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85">
-        <v>10</v>
-      </c>
-      <c r="G85" t="s">
-        <v>75</v>
-      </c>
-      <c r="H85" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85">
-        <v>5</v>
-      </c>
-      <c r="K85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L85">
-        <v>38</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>32</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86">
-        <v>11</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86" t="s">
-        <v>31</v>
-      </c>
-      <c r="L86">
-        <v>38</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>32</v>
-      </c>
-      <c r="O86">
-        <v>75</v>
-      </c>
-      <c r="P86">
-        <v>68.8</v>
-      </c>
-      <c r="Q86">
-        <v>10</v>
-      </c>
-      <c r="R86">
-        <v>75</v>
-      </c>
-      <c r="S86">
-        <v>68.8</v>
-      </c>
-      <c r="T86">
-        <v>10</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>75</v>
-      </c>
-      <c r="X86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87" t="s">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87">
-        <v>38</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>32</v>
-      </c>
-      <c r="O87">
-        <v>825</v>
-      </c>
-      <c r="P87">
-        <v>756.8</v>
-      </c>
-      <c r="Q87">
-        <v>110</v>
-      </c>
-      <c r="R87">
-        <v>825</v>
-      </c>
-      <c r="S87">
-        <v>756.8</v>
-      </c>
-      <c r="T87">
-        <v>110</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>825</v>
-      </c>
-      <c r="X87">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88">
-        <v>4</v>
-      </c>
-      <c r="G88" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88">
-        <v>38</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="s">
-        <v>32</v>
-      </c>
-      <c r="O88">
-        <v>735</v>
-      </c>
-      <c r="P88">
-        <v>674.24</v>
-      </c>
-      <c r="Q88">
-        <v>106</v>
-      </c>
-      <c r="R88">
-        <v>735</v>
-      </c>
-      <c r="S88">
-        <v>674.24</v>
-      </c>
-      <c r="T88">
-        <v>106</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>735</v>
-      </c>
-      <c r="X88">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89">
-        <v>5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>75</v>
-      </c>
-      <c r="H89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>30</v>
-      </c>
-      <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="K89" t="s">
-        <v>31</v>
-      </c>
-      <c r="L89">
-        <v>38</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="s">
-        <v>32</v>
-      </c>
-      <c r="O89">
-        <v>885</v>
-      </c>
-      <c r="P89">
-        <v>811.84</v>
-      </c>
-      <c r="Q89">
-        <v>131</v>
-      </c>
-      <c r="R89">
-        <v>885</v>
-      </c>
-      <c r="S89">
-        <v>811.84</v>
-      </c>
-      <c r="T89">
-        <v>131</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>885</v>
-      </c>
-      <c r="X89">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90">
-        <v>3</v>
-      </c>
-      <c r="K90" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90">
-        <v>43.5</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" t="s">
-        <v>30</v>
-      </c>
-      <c r="J91">
-        <v>3</v>
-      </c>
-      <c r="K91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91">
-        <v>43.5</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92">
-        <v>9</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" t="s">
-        <v>30</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92">
-        <v>42.5</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" t="s">
-        <v>32</v>
-      </c>
-      <c r="O92">
-        <v>3571</v>
-      </c>
-      <c r="P92">
-        <v>3276.92</v>
-      </c>
-      <c r="Q92">
-        <v>323</v>
-      </c>
-      <c r="R92">
-        <v>3571</v>
-      </c>
-      <c r="S92">
-        <v>3276.92</v>
-      </c>
-      <c r="T92">
-        <v>323</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>3571</v>
-      </c>
-      <c r="X92">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93">
-        <v>11</v>
-      </c>
-      <c r="C93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93">
-        <v>10</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" t="s">
-        <v>30</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="K93" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93">
-        <v>42.5</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93" t="s">
-        <v>32</v>
-      </c>
-      <c r="O93">
-        <v>2634.9</v>
-      </c>
-      <c r="P93">
-        <v>2418.2399999999993</v>
-      </c>
-      <c r="Q93">
-        <v>255</v>
-      </c>
-      <c r="R93">
-        <v>2634.9</v>
-      </c>
-      <c r="S93">
-        <v>2418.2399999999993</v>
-      </c>
-      <c r="T93">
-        <v>255</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>2634.9</v>
-      </c>
-      <c r="X93">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94">
-        <v>12</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" t="s">
-        <v>30</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
-      </c>
-      <c r="K94" t="s">
-        <v>31</v>
-      </c>
-      <c r="L94">
-        <v>42.5</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94" t="s">
-        <v>32</v>
-      </c>
-      <c r="O94">
-        <v>1831.75</v>
-      </c>
-      <c r="P94">
-        <v>1682.69</v>
-      </c>
-      <c r="Q94">
-        <v>175</v>
-      </c>
-      <c r="R94">
-        <v>1831.75</v>
-      </c>
-      <c r="S94">
-        <v>1682.69</v>
-      </c>
-      <c r="T94">
-        <v>175</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" t="s">
-        <v>30</v>
-      </c>
-      <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95" t="s">
-        <v>31</v>
-      </c>
-      <c r="L95">
-        <v>42.5</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95" t="s">
-        <v>32</v>
-      </c>
-      <c r="O95">
-        <v>216</v>
-      </c>
-      <c r="P95">
-        <v>198.24</v>
-      </c>
-      <c r="Q95">
-        <v>16</v>
-      </c>
-      <c r="R95">
-        <v>216</v>
-      </c>
-      <c r="S95">
-        <v>198.24</v>
-      </c>
-      <c r="T95">
-        <v>16</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>216</v>
-      </c>
-      <c r="X95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>131</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96">
-        <v>10</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s">
-        <v>29</v>
-      </c>
-      <c r="I96" t="s">
-        <v>30</v>
-      </c>
-      <c r="J96">
-        <v>3</v>
-      </c>
-      <c r="K96" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96">
-        <v>42.5</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96" t="s">
-        <v>32</v>
-      </c>
-      <c r="O96">
-        <v>138</v>
-      </c>
-      <c r="P96">
-        <v>126.6</v>
-      </c>
-      <c r="Q96">
-        <v>12</v>
-      </c>
-      <c r="R96">
-        <v>138</v>
-      </c>
-      <c r="S96">
-        <v>126.6</v>
-      </c>
-      <c r="T96">
-        <v>12</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>138</v>
-      </c>
-      <c r="X96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97">
-        <v>11</v>
-      </c>
-      <c r="C97" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" t="s">
-        <v>29</v>
-      </c>
-      <c r="I97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J97">
-        <v>3</v>
-      </c>
-      <c r="K97" t="s">
-        <v>31</v>
-      </c>
-      <c r="L97">
-        <v>42.5</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97" t="s">
-        <v>32</v>
-      </c>
-      <c r="O97">
-        <v>475</v>
-      </c>
-      <c r="P97">
-        <v>435.76</v>
-      </c>
-      <c r="Q97">
-        <v>45</v>
-      </c>
-      <c r="R97">
-        <v>475</v>
-      </c>
-      <c r="S97">
-        <v>435.76</v>
-      </c>
-      <c r="T97">
-        <v>45</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s">
-        <v>29</v>
-      </c>
-      <c r="I98" t="s">
-        <v>30</v>
-      </c>
-      <c r="J98">
-        <v>3</v>
-      </c>
-      <c r="K98" t="s">
-        <v>31</v>
-      </c>
-      <c r="L98">
-        <v>37</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98" t="s">
-        <v>32</v>
-      </c>
-      <c r="O98">
-        <v>15</v>
-      </c>
-      <c r="P98">
-        <v>13.76</v>
-      </c>
-      <c r="Q98">
-        <v>2</v>
-      </c>
-      <c r="R98">
-        <v>15</v>
-      </c>
-      <c r="S98">
-        <v>13.76</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>15</v>
-      </c>
-      <c r="X98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99">
-        <v>7</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" t="s">
-        <v>29</v>
-      </c>
-      <c r="I99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99">
-        <v>3</v>
-      </c>
-      <c r="K99" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99">
-        <v>37</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99" t="s">
-        <v>32</v>
-      </c>
-      <c r="O99">
-        <v>54</v>
-      </c>
-      <c r="P99">
-        <v>49.56</v>
-      </c>
-      <c r="Q99">
-        <v>6</v>
-      </c>
-      <c r="R99">
-        <v>54</v>
-      </c>
-      <c r="S99">
-        <v>49.56</v>
-      </c>
-      <c r="T99">
-        <v>6</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>54</v>
-      </c>
-      <c r="X99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" t="s">
-        <v>134</v>
-      </c>
-      <c r="F100">
-        <v>8</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s">
-        <v>29</v>
-      </c>
-      <c r="I100" t="s">
-        <v>30</v>
-      </c>
-      <c r="J100">
-        <v>3</v>
-      </c>
-      <c r="K100" t="s">
-        <v>31</v>
-      </c>
-      <c r="L100">
-        <v>37</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100">
-        <v>43.13</v>
-      </c>
-      <c r="P100">
-        <v>39.57</v>
-      </c>
-      <c r="Q100">
-        <v>4</v>
-      </c>
-      <c r="R100">
-        <v>43.13</v>
-      </c>
-      <c r="S100">
-        <v>39.57</v>
-      </c>
-      <c r="T100">
-        <v>4</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s">
-        <v>29</v>
-      </c>
-      <c r="I101" t="s">
-        <v>30</v>
-      </c>
-      <c r="J101">
-        <v>3</v>
-      </c>
-      <c r="K101" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101">
-        <v>40.25</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101" t="s">
-        <v>32</v>
-      </c>
-      <c r="O101">
-        <v>11655.96</v>
-      </c>
-      <c r="P101">
-        <v>10698.04</v>
-      </c>
-      <c r="Q101">
-        <v>967</v>
-      </c>
-      <c r="R101">
-        <v>11655.96</v>
-      </c>
-      <c r="S101">
-        <v>10698.04</v>
-      </c>
-      <c r="T101">
-        <v>967</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>11655.96</v>
-      </c>
-      <c r="X101">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s">
-        <v>29</v>
-      </c>
-      <c r="I102" t="s">
-        <v>30</v>
-      </c>
-      <c r="J102">
-        <v>3</v>
-      </c>
-      <c r="K102" t="s">
-        <v>31</v>
-      </c>
-      <c r="L102">
-        <v>40.25</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102" t="s">
-        <v>32</v>
-      </c>
-      <c r="O102">
-        <v>7207.13</v>
-      </c>
-      <c r="P102">
-        <v>6613.84</v>
-      </c>
-      <c r="Q102">
-        <v>600</v>
-      </c>
-      <c r="R102">
-        <v>7207.13</v>
-      </c>
-      <c r="S102">
-        <v>6613.84</v>
-      </c>
-      <c r="T102">
-        <v>600</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>7207.13</v>
-      </c>
-      <c r="X102">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>135</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s">
-        <v>29</v>
-      </c>
-      <c r="I103" t="s">
-        <v>30</v>
-      </c>
-      <c r="J103">
-        <v>3</v>
-      </c>
-      <c r="K103" t="s">
-        <v>31</v>
-      </c>
-      <c r="L103">
-        <v>40.25</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103" t="s">
-        <v>32</v>
-      </c>
-      <c r="O103">
-        <v>6139.04</v>
-      </c>
-      <c r="P103">
-        <v>5633.8300000000017</v>
-      </c>
-      <c r="Q103">
-        <v>490</v>
-      </c>
-      <c r="R103">
-        <v>6139.04</v>
-      </c>
-      <c r="S103">
-        <v>5633.8300000000017</v>
-      </c>
-      <c r="T103">
-        <v>490</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s">
-        <v>29</v>
-      </c>
-      <c r="I104" t="s">
-        <v>30</v>
-      </c>
-      <c r="J104">
-        <v>3</v>
-      </c>
-      <c r="K104" t="s">
-        <v>31</v>
-      </c>
-      <c r="L104">
-        <v>38.5</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
-        <v>32</v>
-      </c>
-      <c r="O104">
-        <v>797</v>
-      </c>
-      <c r="P104">
-        <v>732.46</v>
-      </c>
-      <c r="Q104">
-        <v>69</v>
-      </c>
-      <c r="R104">
-        <v>797</v>
-      </c>
-      <c r="S104">
-        <v>732.46</v>
-      </c>
-      <c r="T104">
-        <v>69</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>797</v>
-      </c>
-      <c r="X104">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" t="s">
-        <v>138</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>29</v>
-      </c>
-      <c r="I105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J105">
-        <v>3</v>
-      </c>
-      <c r="K105" t="s">
-        <v>31</v>
-      </c>
-      <c r="L105">
-        <v>38.5</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105" t="s">
-        <v>32</v>
-      </c>
-      <c r="O105">
-        <v>2494.96</v>
-      </c>
-      <c r="P105">
-        <v>2289.2299999999996</v>
-      </c>
-      <c r="Q105">
-        <v>214</v>
-      </c>
-      <c r="R105">
-        <v>2494.96</v>
-      </c>
-      <c r="S105">
-        <v>2289.2299999999996</v>
-      </c>
-      <c r="T105">
-        <v>214</v>
-      </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>2494.96</v>
-      </c>
-      <c r="X105">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" t="s">
-        <v>138</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
-      </c>
-      <c r="I106" t="s">
-        <v>30</v>
-      </c>
-      <c r="J106">
-        <v>3</v>
-      </c>
-      <c r="K106" t="s">
-        <v>31</v>
-      </c>
-      <c r="L106">
-        <v>38.5</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106" t="s">
-        <v>32</v>
-      </c>
-      <c r="O106">
-        <v>2750.63</v>
-      </c>
-      <c r="P106">
-        <v>2523.5300000000007</v>
-      </c>
-      <c r="Q106">
-        <v>210</v>
-      </c>
-      <c r="R106">
-        <v>2750.63</v>
-      </c>
-      <c r="S106">
-        <v>2523.5300000000007</v>
-      </c>
-      <c r="T106">
-        <v>210</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="X106">
         <v>0</v>
       </c>
     </row>

--- a/backend/uploads/recettes.xlsx
+++ b/backend/uploads/recettes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862FF6D-140D-447B-A442-AE41C5C0ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF59D50-2E09-4F19-8823-40CC4627AA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,7 +4064,7 @@
         <v>88</v>
       </c>
       <c r="R45">
-        <v>200</v>
+        <v>676.72</v>
       </c>
       <c r="S45">
         <v>0</v>
